--- a/PredictionResults.xlsx
+++ b/PredictionResults.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Prediction Results" sheetId="1" r:id="rId1"/>
     <sheet name="Split Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -64,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,22 +194,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,22 +272,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -299,11 +303,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2128861024"/>
-        <c:axId val="-2131533600"/>
+        <c:axId val="246928896"/>
+        <c:axId val="246930576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128861024"/>
+        <c:axId val="246928896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,7 +350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131533600"/>
+        <c:crossAx val="246930576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131533600"/>
+        <c:axId val="246930576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +465,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128861024"/>
+        <c:crossAx val="246928896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,6 +561,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dataset Classes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -754,29 +783,55 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Prediction Results'!$B$7:$G$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43.47826086956522</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.6376811594203</c:v>
+                  <c:v>0.24637681159420291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.14492753623188</c:v>
+                  <c:v>0.10144927536231885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.898550724637681</c:v>
+                  <c:v>2.8985507246376812E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.246376811594203</c:v>
+                  <c:v>7.2463768115942032E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.59420289855072</c:v>
+                  <c:v>0.11594202898550725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,6 +982,32 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prediction Results'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Operations</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Prediction Results'!$C$2:$G$2</c:f>
@@ -934,19 +1015,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +1054,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2476,16 +2557,19 @@
   <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -2505,7 +2589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2584,38 +2668,39 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <f>B5/$H$5*100</f>
-        <v>43.478260869565219</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:G7" si="1">C5/$H$5*100</f>
-        <v>24.637681159420293</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1">
+        <f>B5/$H$5</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:G7" si="1">C5/$H$5</f>
+        <v>0.24637681159420291</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>10.144927536231885</v>
-      </c>
-      <c r="E7">
+        <v>0.10144927536231885</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="F7">
+        <v>2.8985507246376812E-2</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>7.2463768115942031</v>
-      </c>
-      <c r="G7">
+        <v>7.2463768115942032E-2</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>11.594202898550725</v>
+        <v>0.11594202898550725</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2625,7 +2710,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
